--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,17 +35,17 @@
     <t>attitude_test</t>
   </si>
   <si>
+    <t>path_planning</t>
+  </si>
+  <si>
     <t>run</t>
-  </si>
-  <si>
-    <t>path_planning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +108,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,10 +186,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -443,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -451,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -459,9 +442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -469,29 +452,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -507,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -515,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -523,9 +503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -44,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +199,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +234,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,14 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -418,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -426,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -434,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -442,12 +459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -456,14 +473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -487,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -495,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -503,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>environment name</t>
   </si>
@@ -28,6 +23,15 @@
     <t>iter number</t>
   </si>
   <si>
+    <t>path_planning</t>
+  </si>
+  <si>
+    <t>attitude_test</t>
+  </si>
+  <si>
+    <t>altitude_test</t>
+  </si>
+  <si>
     <t>attitude_discrete</t>
   </si>
   <si>
@@ -37,10 +41,31 @@
     <t>attitude_fragment</t>
   </si>
   <si>
-    <t>attitude_test</t>
-  </si>
-  <si>
-    <t>path_planning</t>
+    <t>altitude_discrete</t>
+  </si>
+  <si>
+    <t>altitude_continuous</t>
+  </si>
+  <si>
+    <t>altitude_fragment</t>
+  </si>
+  <si>
+    <t>attitude_discrete_a2c</t>
+  </si>
+  <si>
+    <t>attitude_continuous_A2C</t>
+  </si>
+  <si>
+    <t>attitude_fragment_A2C</t>
+  </si>
+  <si>
+    <t>altitude_discrete_A2C</t>
+  </si>
+  <si>
+    <t>altitude_continuous_A2C</t>
+  </si>
+  <si>
+    <t>altitude_fragment_A2C</t>
   </si>
   <si>
     <t>run</t>
@@ -49,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +138,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,16 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -443,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -451,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -459,12 +472,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -473,22 +566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -504,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -512,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -520,12 +613,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -74,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +143,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,14 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,116 +468,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -566,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -589,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -597,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -605,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -613,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -621,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -629,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -637,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -645,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -653,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -661,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -669,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -677,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -685,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -693,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -79,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +138,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -197,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,19 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,116 +448,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -586,14 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -609,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -617,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -625,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -633,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -649,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -657,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -665,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -673,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -681,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -689,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -697,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -705,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -713,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -77,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +443,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,15 +479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -475,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -483,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -491,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -499,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -507,15 +527,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -523,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -531,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -539,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -547,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -555,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -563,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -577,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -600,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -608,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -616,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -624,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -632,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -640,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -648,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -656,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -664,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -672,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -680,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -688,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -696,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -704,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>environment name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>attitude_discrete</t>
   </si>
   <si>
+    <t>attitude_discrete_lower</t>
+  </si>
+  <si>
     <t>attitude_continuous</t>
   </si>
   <si>
@@ -50,7 +53,7 @@
     <t>altitude_fragment</t>
   </si>
   <si>
-    <t>attitude_discrete_a2c</t>
+    <t>attitude_discrete_A2C</t>
   </si>
   <si>
     <t>attitude_continuous_A2C</t>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -469,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,6 +560,14 @@
         <v>16</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
     </row>
@@ -578,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -615,7 +626,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -623,7 +634,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -631,7 +642,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -639,7 +650,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -647,7 +658,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -655,7 +666,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -663,7 +674,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -671,7 +682,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -679,7 +690,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -687,7 +698,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -695,7 +706,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\azadi tez\tez\azadi\RL-for-control-quad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
     <sheet name="run" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +141,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -200,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,10 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,19 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -479,15 +459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -495,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -503,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -511,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -519,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -527,15 +507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -543,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -551,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -559,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -567,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -575,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -583,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -597,14 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -636,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -644,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -652,15 +632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -668,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -676,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -684,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -692,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -700,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -708,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -716,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -724,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
